--- a/data/idopontok.xlsx
+++ b/data/idopontok.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,117 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ricsi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ricsi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ricsi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ricsi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-06-22</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ricsi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/idopontok.xlsx
+++ b/data/idopontok.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,7 +633,155 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c746eacf-c503-4cb3-a232-faa4dbc0dbc8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-06-21</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>lábmasszás</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>8f0872a8-4bdc-416c-9f74-0e4eea66f34f</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Géza</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>hideg lesz</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>c746eacf-c503-4cb3-a232-faa4dbc0dbc8</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c746eacf-c503-4cb3-a232-faa4dbc0dbc8</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>8f0872a8-4bdc-416c-9f74-0e4eea66f34f</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Géza</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>igen</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/idopontok.xlsx
+++ b/data/idopontok.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Páciens ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,354 +434,252 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>Telefon</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Szul. dátum</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Dátum</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Időpont</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Megjegyzés</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>e6b3f50a-6cd0-429d-b74b-fb5f2345cfc5</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>Bugyik Richárd</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025.12.10.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>e6b3f50a-6cd0-429d-b74b-fb5f2345cfc5</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>Bugyik Richárd</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>lábmasszás</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>e6b3f50a-6cd0-429d-b74b-fb5f2345cfc5</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bugyik Richárd</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-06-19</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
+          <t>ricsi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>ricsi</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-06-21</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>ricsi</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ricsi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ricsi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Géza</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Géza</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>123125124</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>jozsi@gmail.com</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ricsi</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2025-06-20</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ricsi</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2025-06-22</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>087b893c-a692-42a3-99ae-174e640e0f2d</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ricsi</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2025-06-26</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>c746eacf-c503-4cb3-a232-faa4dbc0dbc8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>jozsi</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2025-06-21</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>8f0872a8-4bdc-416c-9f74-0e4eea66f34f</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Géza</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11222221</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Geza@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1980-02-02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>lábmasszás</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>8f0872a8-4bdc-416c-9f74-0e4eea66f34f</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Géza</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2025-06-26</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>hideg lesz</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>c746eacf-c503-4cb3-a232-faa4dbc0dbc8</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>jozsi</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2025-06-20</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>c746eacf-c503-4cb3-a232-faa4dbc0dbc8</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>jozsi</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2025-06-20</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2025-06-20</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2025-06-24</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>8f0872a8-4bdc-416c-9f74-0e4eea66f34f</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Géza</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2025-06-24</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>igen</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/idopontok.xlsx
+++ b/data/idopontok.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bugyik Richárd</t>
+          <t>Géza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -478,208 +478,65 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bugyik Richárd</t>
+          <t>laci1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>123123123</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>laci@gmail.com</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1991-01-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>c746eacf-c503-4cb3-a232-faa4dbc0dbc8</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ricsi</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ricsi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ricsi</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ricsi</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ricsi</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
           <t>jozsi</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Géza</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>jozsi</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>jozsi</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Géza</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>jozsi</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>jozsi</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>jozsi</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>123125124</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>jozsi@gmail.com</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2025-06-20</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>8f0872a8-4bdc-416c-9f74-0e4eea66f34f</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Géza</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>11222221</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Geza@gmail.com</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1980-02-02</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-06-17</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/idopontok.xlsx
+++ b/data/idopontok.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Páciens ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -434,78 +434,55 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Telefon</t>
+          <t>Dátum</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Időpont</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>Szul. dátum</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Dátum</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Időpont</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
         <is>
           <t>Megjegyzés</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Géza</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>jozsi</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c746eacf-c503-4cb3-a232-faa4dbc0dbc8</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>laci1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>123123123</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>laci@gmail.com</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>1991-01-01</t>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>123125124</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>jozsi@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>c746eacf-c503-4cb3-a232-faa4dbc0dbc8</t>
-        </is>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>jozsi</t>
@@ -513,30 +490,33 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>123125124</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>jozsi@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2025-06-20</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-06-18</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+          <t>09:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>10:00</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/idopontok.xlsx
+++ b/data/idopontok.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,7 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>jozsi</t>
@@ -490,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-06-18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -498,25 +499,7 @@
           <t>09:00</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>jozsi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-06-17</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/idopontok.xlsx
+++ b/data/idopontok.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>jozsi</t>
@@ -499,7 +498,42 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>jozsi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-06-20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gábor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
